--- a/sp_tjsp_divadmin/data/output/tab/Dim_RAJs.xlsx
+++ b/sp_tjsp_divadmin/data/output/tab/Dim_RAJs.xlsx
@@ -94,7 +94,7 @@
     <t>Presidente Prudente</t>
   </si>
   <si>
-    <t>Gabriela Fragoso Calasso Costa</t>
+    <t>Fernando Antonio Tasso</t>
   </si>
   <si>
     <t>Antonio Fernando Sanches Batagelo</t>
@@ -106,10 +106,10 @@
     <t>Wagner Roby Gidaro</t>
   </si>
   <si>
-    <t>Paulo Gimenes Alonso</t>
-  </si>
-  <si>
-    <t>gfccosta@tjsp.jus.br</t>
+    <t>Antonio Roberto Sylla</t>
+  </si>
+  <si>
+    <t>ftasso@tjsp.jus.br</t>
   </si>
   <si>
     <t>abatagelo@tjsp.jus.br</t>
@@ -121,7 +121,7 @@
     <t>wgidaro@tjsp.jus.br</t>
   </si>
   <si>
-    <t>palonso@tjsp.jus.br</t>
+    <t>antoniosylla@tjsp.jus.br</t>
   </si>
 </sst>
 </file>
